--- a/目次_finish.xlsx
+++ b/目次_finish.xlsx
@@ -1,107 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E91E2B-5A2B-463F-BD9D-D796760E0DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="目次" sheetId="1" r:id="rId1"/>
+    <sheet name="目次" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">目次!$A$1:$E$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'目次'!$A$1:$J$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>化 成 肥 料</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シゲル</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="游ゴシック"/>
+      <charset val="128"/>
       <family val="3"/>
-      <charset val="128"/>
+      <b val="1"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ED7D31"/>
+        <bgColor rgb="00ED7D31"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -112,8 +93,8 @@
     <border>
       <left/>
       <right/>
-      <top style="mediumDashed">
-        <color theme="0" tint="-0.24994659260841701"/>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -122,67 +103,56 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="mediumDashed">
-        <color theme="0" tint="-0.24994659260841701"/>
+      <bottom style="hair">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF5B9BD5"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -448,213 +418,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="26.5"/>
   <cols>
-    <col min="1" max="4" width="8.6640625" style="4"/>
-    <col min="5" max="5" width="4.58203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="4"/>
+    <col width="8.08" customWidth="1" style="1" min="1" max="4"/>
+    <col width="8.08" customWidth="1" style="6" min="2" max="2"/>
+    <col width="8.08" customWidth="1" style="6" min="3" max="3"/>
+    <col width="8.08" customWidth="1" style="6" min="4" max="4"/>
+    <col width="4.04" customWidth="1" style="3" min="5" max="5"/>
+    <col width="8.08" customWidth="1" style="1" min="6" max="9"/>
+    <col width="4.58203125" customWidth="1" style="1" min="10" max="10"/>
+    <col width="8.6640625" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="1">
+      <c r="A1" s="4" t="n"/>
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="4" t="n"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" s="6">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>化成</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" s="6">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>特栽ｺｼ一発297</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" s="6">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>ｼﾞｼｱﾝﾌﾟﾗｽ562</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" s="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>ｼﾞｼｱﾝﾀｰﾎﾞS789</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" s="6">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>ﾛﾝｸﾞｿﾗﾏｷ君</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" s="6">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" s="6">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" s="6">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="11" t="n"/>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="12" t="n"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" s="6">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="11" t="n"/>
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="11" t="n"/>
+      <c r="E11" s="12" t="n"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" s="6">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="11" t="n"/>
+      <c r="C12" s="11" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="12" t="n"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" s="6">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="11" t="n"/>
+      <c r="C13" s="11" t="n"/>
+      <c r="D13" s="11" t="n"/>
+      <c r="E13" s="12" t="n"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" s="6">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="12" t="n"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" s="6">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="11" t="n"/>
+      <c r="C15" s="11" t="n"/>
+      <c r="D15" s="11" t="n"/>
+      <c r="E15" s="12" t="n"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" s="6">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="12" t="n"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" s="6">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="11" t="n"/>
+      <c r="C17" s="11" t="n"/>
+      <c r="D17" s="11" t="n"/>
+      <c r="E17" s="12" t="n"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" s="6">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="11" t="n"/>
+      <c r="C18" s="11" t="n"/>
+      <c r="D18" s="11" t="n"/>
+      <c r="E18" s="12" t="n"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" s="6">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="11" t="n"/>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="12" t="n"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" s="6">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="11" t="n"/>
+      <c r="C20" s="11" t="n"/>
+      <c r="D20" s="11" t="n"/>
+      <c r="E20" s="12" t="n"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" s="6">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="11" t="n"/>
+      <c r="C21" s="11" t="n"/>
+      <c r="D21" s="11" t="n"/>
+      <c r="E21" s="12" t="n"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" s="6">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="12" t="n"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" s="6">
+      <c r="A23" s="11" t="n"/>
+      <c r="B23" s="11" t="n"/>
+      <c r="C23" s="11" t="n"/>
+      <c r="D23" s="11" t="n"/>
+      <c r="E23" s="12" t="n"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" s="6">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="11" t="n"/>
+      <c r="E24" s="12" t="n"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" s="6">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="11" t="n"/>
+      <c r="C25" s="11" t="n"/>
+      <c r="D25" s="11" t="n"/>
+      <c r="E25" s="12" t="n"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" s="6">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" s="6"/>
+    <row r="28" ht="22.5" customHeight="1" s="6"/>
+    <row r="29" ht="22.5" customHeight="1" s="6"/>
+    <row r="30" ht="22.5" customHeight="1" s="6"/>
+    <row r="31" ht="22.5" customHeight="1" s="6"/>
+    <row r="32" ht="22.5" customHeight="1" s="6"/>
+    <row r="33" ht="22.5" customHeight="1" s="6"/>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="105"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" min="0" max="16383" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>